--- a/Assignments_Quizzes/Guitar Lessons/grouping.xlsx
+++ b/Assignments_Quizzes/Guitar Lessons/grouping.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grejell\Documents\GitHub\datasciencecoursera\Assignments_Quizzes\Guitar Lessons\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="27729"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="36084" windowHeight="9024" xr2:uid="{32AB64C4-4B97-4C0C-9766-30EA30A0B66A}"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -24,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Jeff</t>
   </si>
@@ -75,13 +73,22 @@
   </si>
   <si>
     <t>Guitar</t>
+  </si>
+  <si>
+    <t>Teacher</t>
+  </si>
+  <si>
+    <t>Mentor</t>
+  </si>
+  <si>
+    <t>Instrument</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,9 +97,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -115,17 +143,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -184,7 +225,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -236,7 +277,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -430,91 +471,119 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2503F7A9-2F8E-4A03-A79B-35EF2D77F68C}">
-  <dimension ref="B3:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+    <row r="2" spans="2:8" ht="20">
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="20">
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="2:8" ht="20">
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+    <row r="5" spans="2:8" ht="20">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+    <row r="6" spans="2:8" ht="20">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>